--- a/2025-03-03_4o-mini_feedback_sheets/overall_gen/Arrhythmia_gen_overall.xlsx
+++ b/2025-03-03_4o-mini_feedback_sheets/overall_gen/Arrhythmia_gen_overall.xlsx
@@ -462,110 +462,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Palpitations experienced intermittently over the past few weeks</t>
+          <t>Palpitations</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Palpitations are a common symptom of arrhythmias, indicating irregular heartbeats.</t>
+          <t>Palpitations are a common symptom of arrhythmia, often described as a fluttering or irregular heartbeat.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of syncope or near-syncope events</t>
+          <t>No palpitations</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Absence of fainting spells suggests a lower likelihood of significant arrhythmias.</t>
+          <t>The absence of palpitations makes arrhythmia less likely, as they are a common symptom.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Episodes of dizziness or lightheadedness accompanying the palpitations</t>
+          <t>Syncope</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Dizziness can occur due to decreased cardiac output during arrhythmias, supporting the diagnosis.</t>
+          <t>Syncope, or fainting, can occur due to a sudden drop in blood flow to the brain, which is sometimes caused by arrhythmias.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Stable heart rate during routine physical examinations</t>
+          <t>No history of syncope</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A consistently normal heart rate during exams indicates a lower likelihood of arrhythmia.</t>
+          <t>Without episodes of syncope, the likelihood of arrhythmia decreases, as syncope is a significant symptom.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>History of increased physical activity leading to symptoms</t>
+          <t>Dizziness</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Increased activity can provoke arrhythmias, making this a relevant finding.</t>
+          <t>Dizziness can be a result of arrhythmias due to inadequate blood flow to the brain.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No associated chest pain or discomfort reported</t>
+          <t>Stable heart rate</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Chest pain is often associated with serious arrhythmias; its absence suggests a lower risk.</t>
+          <t>A consistently stable heart rate over time suggests a lower probability of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Family history of heart disease or arrhythmias</t>
+          <t>Chest pain</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A family history increases the likelihood of inherited arrhythmias, supporting the diagnosis.</t>
+          <t>Chest pain can occur with arrhythmias, especially if the heart is not pumping effectively.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>No significant changes in weight or appetite</t>
+          <t>No dizziness</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Stable weight and appetite can indicate overall good health, reducing the likelihood of arrhythmias.</t>
+          <t>The absence of dizziness reduces the likelihood of arrhythmia, as dizziness is a common symptom.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Symptoms worsening with stress or anxiety</t>
+          <t>Shortness of breath</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Stress can trigger or exacerbate arrhythmias, indicating a potential underlying issue.</t>
+          <t>Shortness of breath can be associated with arrhythmias due to reduced cardiac output.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of hypertension or diabetes</t>
+          <t>No chest pain</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of these common risk factors for cardiovascular disease suggests a lower likelihood of arrhythmias.</t>
+          <t>Without chest pain, the probability of arrhythmia is lower, as chest pain can be a symptom of arrhythmia.</t>
         </is>
       </c>
     </row>
@@ -613,110 +613,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>History of heart disease</t>
+          <t>History of atrial fibrillation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Patients with a history of heart disease, such as coronary artery disease or heart failure, are at a higher risk for developing arrhythmias.</t>
+          <t>Atrial fibrillation is a common type of arrhythmia, and its presence strongly suggests an underlying arrhythmic disorder.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>No history of heart disease</t>
+          <t>No history of palpitations</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A lack of heart disease history significantly reduces the likelihood of arrhythmias.</t>
+          <t>The absence of palpitations, a common symptom of arrhythmias, suggests a lower likelihood of having an arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Previous episodes of palpitations</t>
+          <t>Use of antiarrhythmic medications</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>A history of palpitations suggests prior arrhythmic events, indicating a predisposition to arrhythmias.</t>
+          <t>The use of medications specifically for controlling heart rhythm indicates a history of arrhythmia.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No previous episodes of palpitations</t>
+          <t>No history of syncope</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of palpitations suggests that the patient has not experienced arrhythmic events, making arrhythmia less likely.</t>
+          <t>Syncope, or fainting, can be a symptom of arrhythmias. Its absence reduces the likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of medications like beta-blockers</t>
+          <t>Previous cardiac ablation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beta-blockers are often prescribed for arrhythmias, indicating a previous diagnosis or management of arrhythmias.</t>
+          <t>Cardiac ablation is a procedure often performed to treat arrhythmias, indicating a history of such conditions.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No use of medications for heart conditions</t>
+          <t>No history of heart disease</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Not using any medications typically prescribed for arrhythmias indicates a lower likelihood of having the condition.</t>
+          <t>Heart disease is a major risk factor for arrhythmias. Its absence suggests a lower risk of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>History of hypertension</t>
+          <t>History of myocardial infarction</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hypertension is a significant risk factor for the development of arrhythmias, particularly atrial fibrillation.</t>
+          <t>A myocardial infarction can lead to arrhythmias due to damage to the heart tissue.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal blood pressure readings</t>
+          <t>No use of cardiac medications</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consistently normal blood pressure readings suggest a lower risk for developing arrhythmias, particularly in the context of hypertension.</t>
+          <t>The absence of medications for heart conditions suggests a lower likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Previous cardiac surgeries</t>
+          <t>Presence of a pacemaker</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Patients who have undergone cardiac surgeries may have a higher likelihood of developing arrhythmias due to structural changes in the heart.</t>
+          <t>Pacemakers are often implanted to manage arrhythmias, suggesting a history of arrhythmic events.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No history of cardiac procedures</t>
+          <t>No previous cardiac surgeries</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Absence of any cardiac procedures indicates a lower likelihood of structural heart issues that could lead to arrhythmias.</t>
+          <t>Cardiac surgeries can be associated with arrhythmias. Their absence suggests a lower risk.</t>
         </is>
       </c>
     </row>
@@ -764,110 +764,110 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Family history of cardiovascular disease</t>
+          <t>Family history of arrhythmia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>A family history of cardiovascular issues increases the likelihood of arrhythmias due to genetic predispositions.</t>
+          <t>A family history of arrhythmia significantly increases the likelihood of having arrhythmia due to genetic predisposition.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Regular physical activity</t>
+          <t>No family history of arrhythmia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Engaging in regular exercise is protective against arrhythmias and promotes overall cardiovascular health.</t>
+          <t>The absence of a family history of arrhythmia reduces the likelihood of having a genetic predisposition to the condition.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>High levels of stress or anxiety</t>
+          <t>Excessive alcohol consumption</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chronic stress and anxiety can lead to increased sympathetic nervous system activity, which is associated with arrhythmias.</t>
+          <t>Chronic alcohol use is associated with an increased risk of arrhythmias, particularly atrial fibrillation.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>No history of heart disease in family</t>
+          <t>Moderate alcohol consumption</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Absence of familial heart disease reduces the likelihood of genetic predispositions to arrhythmias.</t>
+          <t>Moderate alcohol consumption is less likely to be associated with arrhythmias compared to excessive consumption.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Use of stimulants (e.g., caffeine, nicotine)</t>
+          <t>Smoking</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stimulants can provoke arrhythmias by increasing heart rate and altering electrical conduction in the heart.</t>
+          <t>Smoking is a risk factor for cardiovascular diseases, including arrhythmias, due to its effects on the heart and blood vessels.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Healthy diet with low sodium intake</t>
+          <t>Non-smoker</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A diet low in sodium and rich in fruits and vegetables is associated with lower blood pressure and reduced risk of arrhythmias.</t>
+          <t>Not smoking reduces the risk of cardiovascular diseases, including arrhythmias.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sedentary lifestyle</t>
+          <t>High caffeine intake</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>A lack of physical activity is associated with various cardiovascular conditions, including arrhythmias.</t>
+          <t>High caffeine consumption can lead to palpitations and arrhythmias in susceptible individuals.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Non-smoker</t>
+          <t>Low caffeine intake</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Not smoking significantly lowers the risk of developing cardiovascular diseases, including arrhythmias.</t>
+          <t>Low caffeine consumption is less likely to trigger arrhythmias compared to high intake.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>History of substance abuse</t>
+          <t>Sedentary lifestyle</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Certain substances, such as alcohol and recreational drugs, can lead to arrhythmias through various mechanisms.</t>
+          <t>A sedentary lifestyle is associated with increased cardiovascular risk, including arrhythmias, due to poor cardiovascular fitness.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stable mental health</t>
+          <t>Active lifestyle</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Good mental health and coping mechanisms reduce stress-related triggers for arrhythmias.</t>
+          <t>An active lifestyle is associated with better cardiovascular health and a lower risk of arrhythmias.</t>
         </is>
       </c>
     </row>
@@ -920,105 +920,105 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An irregular pulse is a common physical exam finding in patients with arrhythmia, indicating abnormal heart rhythm.</t>
+          <t>An irregular pulse is a classic sign of arrhythmia, indicating an abnormal heart rhythm.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal heart rate</t>
+          <t>Regular pulse</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal heart rate during the physical exam is a strong indicator that arrhythmia is not present, as arrhythmias typically cause heart rate abnormalities.</t>
+          <t>A regular pulse suggests a normal heart rhythm, which is less likely in the presence of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Tachycardia</t>
+          <t>Palpitations noted during examination</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tachycardia, or an elevated heart rate, is frequently observed in arrhythmia cases, suggesting the presence of an abnormal heart rhythm.</t>
+          <t>Palpitations are often associated with arrhythmias, as they reflect abnormal heartbeats.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Regular pulse</t>
+          <t>Normal heart rate</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A regular pulse suggests a normal heart rhythm, which is inconsistent with the presence of arrhythmia.</t>
+          <t>A normal heart rate is less indicative of arrhythmia, which often presents with tachycardia or bradycardia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bradycardia</t>
+          <t>Tachycardia</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bradycardia, or a slower than normal heart rate, can also indicate certain types of arrhythmias, supporting the diagnosis.</t>
+          <t>Tachycardia, or a rapid heart rate, can be a manifestation of certain types of arrhythmias.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>No signs of heart failure</t>
+          <t>No palpitations reported during examination</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Absence of signs of heart failure during the physical exam indicates that the heart is functioning normally, making arrhythmia less likely.</t>
+          <t>The absence of palpitations reduces the likelihood of arrhythmia, as palpitations are a common symptom.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Palpitations</t>
+          <t>Pulse deficit</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Patients often report palpitations during a physical exam, which are indicative of arrhythmias and support the diagnosis.</t>
+          <t>A pulse deficit, where the heart rate is higher than the pulse rate, can indicate atrial fibrillation, a common arrhythmia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Normal blood pressure</t>
+          <t>No pulse deficit</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Normal blood pressure readings can suggest stable cardiovascular function, which is less likely to be associated with arrhythmias.</t>
+          <t>The absence of a pulse deficit suggests that the heart rate and pulse rate are synchronized, which is less common in arrhythmias.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Abnormal heart sounds</t>
+          <t>Jugular venous distension</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of abnormal heart sounds during auscultation can suggest underlying arrhythmias, supporting the diagnosis.</t>
+          <t>Jugular venous distension can occur in arrhythmias due to impaired cardiac function and fluid overload.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>No murmurs</t>
+          <t>No jugular venous distension</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>The absence of heart murmurs during auscultation indicates normal heart function, which is not consistent with arrhythmia.</t>
+          <t>The absence of jugular venous distension suggests normal cardiac function, which is less likely in significant arrhythmias.</t>
         </is>
       </c>
     </row>
@@ -1066,88 +1066,88 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Electrocardiogram (ECG) showing irregular rhythm</t>
+          <t>Electrocardiogram (ECG) showing atrial fibrillation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An irregular rhythm on an ECG is a direct indicator of arrhythmia, as it reflects abnormal electrical activity in the heart.</t>
+          <t>Atrial fibrillation is a common type of arrhythmia, and its presence on an ECG is a strong indicator of arrhythmia.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Normal ECG findings</t>
+          <t>Normal ECG</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>A normal ECG indicates that there are no signs of arrhythmia, as it reflects normal electrical activity in the heart.</t>
+          <t>A normal ECG is a strong indicator against the presence of arrhythmia, as it suggests normal heart rhythm.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Holter monitor results showing frequent ectopic beats</t>
+          <t>Holter monitor showing frequent premature ventricular contractions (PVCs)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Frequent ectopic beats detected by a Holter monitor are common in patients with arrhythmia, indicating abnormal heart rhythms.</t>
+          <t>Frequent PVCs detected on a Holter monitor are indicative of arrhythmia, as they represent abnormal heart rhythms.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Negative Holter monitor results</t>
+          <t>Holter monitor showing no arrhythmic events</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>A Holter monitor that shows no arrhythmias over a 24-hour period suggests that the patient does not have arrhythmia.</t>
+          <t>The absence of arrhythmic events on a Holter monitor over a 24-48 hour period suggests a low likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Electrophysiological study revealing conduction abnormalities</t>
+          <t>Electrophysiological study showing reentrant circuits</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Conduction abnormalities identified during an electrophysiological study are strong indicators of arrhythmia, as they demonstrate issues with the heart's electrical pathways.</t>
+          <t>Reentrant circuits identified in an electrophysiological study are a hallmark of certain types of arrhythmias.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal echocardiogram findings</t>
+          <t>Electrophysiological study showing no inducible arrhythmias</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>A normal echocardiogram indicates that the heart's structure and function are normal, which is less likely in patients with arrhythmia.</t>
+          <t>An electrophysiological study that fails to induce arrhythmias suggests a low likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Elevated serum levels of cardiac biomarkers</t>
+          <t>ECG showing ventricular tachycardia</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Elevated cardiac biomarkers can indicate myocardial stress or damage, which may be associated with arrhythmias.</t>
+          <t>Ventricular tachycardia is a serious form of arrhythmia, and its presence on an ECG is a strong indicator of arrhythmia.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Negative results for cardiac stress test</t>
+          <t>Stress test showing no arrhythmias</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>A negative cardiac stress test indicates that there are no exercise-induced arrhythmias, suggesting the absence of arrhythmia.</t>
+          <t>The absence of arrhythmias during a stress test suggests that the heart's electrical system is stable under stress.</t>
         </is>
       </c>
     </row>
@@ -1159,17 +1159,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>The presence of arrhythmia during a stress test suggests that the arrhythmia is provoked by exertion, supporting the diagnosis.</t>
+          <t>Arrhythmias that occur during a stress test are indicative of underlying cardiac electrical instability.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Normal serum electrolyte levels</t>
+          <t>Normal echocardiogram</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Normal serum electrolyte levels reduce the likelihood of arrhythmias, as imbalances in electrolytes can often lead to arrhythmias.</t>
+          <t>A normal echocardiogram suggests normal heart structure and function, which reduces the likelihood of arrhythmia.</t>
         </is>
       </c>
     </row>
